--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>21.2658573916873</v>
+        <v>10.92859066666667</v>
       </c>
       <c r="H2">
-        <v>21.2658573916873</v>
+        <v>32.785772</v>
       </c>
       <c r="I2">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="J2">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N2">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P2">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q2">
-        <v>52.96137071739506</v>
+        <v>33.77323209541377</v>
       </c>
       <c r="R2">
-        <v>52.96137071739506</v>
+        <v>303.959088858724</v>
       </c>
       <c r="S2">
-        <v>0.03262784915260105</v>
+        <v>0.01514282518680364</v>
       </c>
       <c r="T2">
-        <v>0.03262784915260105</v>
+        <v>0.01514282518680365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>21.2658573916873</v>
+        <v>10.92859066666667</v>
       </c>
       <c r="H3">
-        <v>21.2658573916873</v>
+        <v>32.785772</v>
       </c>
       <c r="I3">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="J3">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N3">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P3">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q3">
-        <v>528.0881123676237</v>
+        <v>275.0831221699035</v>
       </c>
       <c r="R3">
-        <v>528.0881123676237</v>
+        <v>2475.748099529132</v>
       </c>
       <c r="S3">
-        <v>0.3253386201341911</v>
+        <v>0.1233383769457071</v>
       </c>
       <c r="T3">
-        <v>0.3253386201341911</v>
+        <v>0.1233383769457072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>21.2658573916873</v>
+        <v>10.92859066666667</v>
       </c>
       <c r="H4">
-        <v>21.2658573916873</v>
+        <v>32.785772</v>
       </c>
       <c r="I4">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="J4">
-        <v>0.5573436390091402</v>
+        <v>0.2185558471001832</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2182004575563</v>
+        <v>16.34167533333333</v>
       </c>
       <c r="N4">
-        <v>15.2182004575563</v>
+        <v>49.025026</v>
       </c>
       <c r="O4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="P4">
-        <v>0.35772754144428</v>
+        <v>0.366380703285267</v>
       </c>
       <c r="Q4">
-        <v>323.6280806885027</v>
+        <v>178.5914805255635</v>
       </c>
       <c r="R4">
-        <v>323.6280806885027</v>
+        <v>1607.323324730072</v>
       </c>
       <c r="S4">
-        <v>0.1993771697223481</v>
+        <v>0.08007464496767237</v>
       </c>
       <c r="T4">
-        <v>0.1993771697223481</v>
+        <v>0.0800746449676724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8898797572901</v>
+        <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>16.8898797572901</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4426563609908598</v>
+        <v>0.4254751576214852</v>
       </c>
       <c r="J5">
-        <v>0.4426563609908598</v>
+        <v>0.4254751576214852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.49044135592188</v>
+        <v>3.090355666666666</v>
       </c>
       <c r="N5">
-        <v>2.49044135592188</v>
+        <v>9.271066999999999</v>
       </c>
       <c r="O5">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="P5">
-        <v>0.05854170904436566</v>
+        <v>0.06928583878088775</v>
       </c>
       <c r="Q5">
-        <v>42.06325504410307</v>
+        <v>65.74828099930131</v>
       </c>
       <c r="R5">
-        <v>42.06325504410307</v>
+        <v>591.7345289937119</v>
       </c>
       <c r="S5">
-        <v>0.02591385989176461</v>
+        <v>0.02947940317623502</v>
       </c>
       <c r="T5">
-        <v>0.02591385989176461</v>
+        <v>0.02947940317623503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8898797572901</v>
+        <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>16.8898797572901</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4426563609908598</v>
+        <v>0.4254751576214852</v>
       </c>
       <c r="J6">
-        <v>0.4426563609908598</v>
+        <v>0.4254751576214852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.8326743963801</v>
+        <v>25.17096033333333</v>
       </c>
       <c r="N6">
-        <v>24.8326743963801</v>
+        <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338453</v>
       </c>
       <c r="P6">
-        <v>0.5837307495113543</v>
+        <v>0.5643334579338454</v>
       </c>
       <c r="Q6">
-        <v>419.4208846067964</v>
+        <v>535.5200344312906</v>
       </c>
       <c r="R6">
-        <v>419.4208846067964</v>
+        <v>4819.680309881615</v>
       </c>
       <c r="S6">
-        <v>0.2583921293771632</v>
+        <v>0.2401098669654806</v>
       </c>
       <c r="T6">
-        <v>0.2583921293771632</v>
+        <v>0.2401098669654807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>21.275312</v>
+      </c>
+      <c r="H7">
+        <v>63.825936</v>
+      </c>
+      <c r="I7">
+        <v>0.4254751576214852</v>
+      </c>
+      <c r="J7">
+        <v>0.4254751576214852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.34167533333333</v>
+      </c>
+      <c r="N7">
+        <v>49.025026</v>
+      </c>
+      <c r="O7">
+        <v>0.366380703285267</v>
+      </c>
+      <c r="P7">
+        <v>0.366380703285267</v>
+      </c>
+      <c r="Q7">
+        <v>347.6742413193706</v>
+      </c>
+      <c r="R7">
+        <v>3129.068171874336</v>
+      </c>
+      <c r="S7">
+        <v>0.1558858874797696</v>
+      </c>
+      <c r="T7">
+        <v>0.1558858874797696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.79975</v>
+      </c>
+      <c r="H8">
+        <v>53.39925</v>
+      </c>
+      <c r="I8">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="J8">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.090355666666666</v>
+      </c>
+      <c r="N8">
+        <v>9.271066999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.06928583878088775</v>
+      </c>
+      <c r="P8">
+        <v>0.06928583878088775</v>
+      </c>
+      <c r="Q8">
+        <v>55.00755827774999</v>
+      </c>
+      <c r="R8">
+        <v>495.0680244997499</v>
+      </c>
+      <c r="S8">
+        <v>0.02466361041784907</v>
+      </c>
+      <c r="T8">
+        <v>0.02466361041784908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>16.8898797572901</v>
-      </c>
-      <c r="H7">
-        <v>16.8898797572901</v>
-      </c>
-      <c r="I7">
-        <v>0.4426563609908598</v>
-      </c>
-      <c r="J7">
-        <v>0.4426563609908598</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>15.2182004575563</v>
-      </c>
-      <c r="N7">
-        <v>15.2182004575563</v>
-      </c>
-      <c r="O7">
-        <v>0.35772754144428</v>
-      </c>
-      <c r="P7">
-        <v>0.35772754144428</v>
-      </c>
-      <c r="Q7">
-        <v>257.0335758504631</v>
-      </c>
-      <c r="R7">
-        <v>257.0335758504631</v>
-      </c>
-      <c r="S7">
-        <v>0.158350371721932</v>
-      </c>
-      <c r="T7">
-        <v>0.158350371721932</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.79975</v>
+      </c>
+      <c r="H9">
+        <v>53.39925</v>
+      </c>
+      <c r="I9">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="J9">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.17096033333333</v>
+      </c>
+      <c r="N9">
+        <v>75.51288099999999</v>
+      </c>
+      <c r="O9">
+        <v>0.5643334579338453</v>
+      </c>
+      <c r="P9">
+        <v>0.5643334579338454</v>
+      </c>
+      <c r="Q9">
+        <v>448.0368011932499</v>
+      </c>
+      <c r="R9">
+        <v>4032.33121073925</v>
+      </c>
+      <c r="S9">
+        <v>0.2008852140226575</v>
+      </c>
+      <c r="T9">
+        <v>0.2008852140226576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.79975</v>
+      </c>
+      <c r="H10">
+        <v>53.39925</v>
+      </c>
+      <c r="I10">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="J10">
+        <v>0.3559689952783316</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>16.34167533333333</v>
+      </c>
+      <c r="N10">
+        <v>49.025026</v>
+      </c>
+      <c r="O10">
+        <v>0.366380703285267</v>
+      </c>
+      <c r="P10">
+        <v>0.366380703285267</v>
+      </c>
+      <c r="Q10">
+        <v>290.8777355144999</v>
+      </c>
+      <c r="R10">
+        <v>2617.8996196305</v>
+      </c>
+      <c r="S10">
+        <v>0.130420170837825</v>
+      </c>
+      <c r="T10">
+        <v>0.130420170837825</v>
       </c>
     </row>
   </sheetData>
